--- a/files/Lab5/cranes_lab5.xlsx
+++ b/files/Lab5/cranes_lab5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romeo\PROGRAMMING\JavaSE-IntelliJ\AVBO-YardManagment-v2\files\Lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3FED98-96CE-41B4-8035-8492FA89A518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EF4F29-2EF6-490E-B991-D2D93EA34A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="930" windowWidth="25440" windowHeight="15540" activeTab="1" xr2:uid="{DF4E75BA-7B48-4D40-8874-355559CE8A7E}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{DF4E75BA-7B48-4D40-8874-355559CE8A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="CASE 1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="88">
   <si>
     <t>q1</t>
   </si>
@@ -215,6 +215,90 @@
   </si>
   <si>
     <t>51</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>SEQUENTIE TEST 1</t>
+  </si>
+  <si>
+    <t>SEQUENTIE TEST 2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>CASE3</t>
+  </si>
+  <si>
+    <t>CASE2</t>
   </si>
 </sst>
 </file>
@@ -472,7 +556,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -531,18 +615,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -557,155 +629,319 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1026,47 +1262,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547A3843-95E1-48B0-AA9A-9E579735FF8A}">
   <dimension ref="A1:AG58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
-      <c r="S1" s="26" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="74"/>
+      <c r="S1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="28"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="74"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1077,11 +1313,11 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4">
@@ -1179,7 +1415,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="31" t="s">
+      <c r="V5" s="27" t="s">
         <v>15</v>
       </c>
       <c r="W5" s="15"/>
@@ -1384,7 +1620,7 @@
       <c r="R11">
         <v>6</v>
       </c>
-      <c r="S11" s="32"/>
+      <c r="S11" s="28"/>
       <c r="T11" s="24"/>
       <c r="U11" s="24"/>
       <c r="V11" s="24"/>
@@ -1507,7 +1743,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
       <c r="AA17" s="15"/>
-      <c r="AB17" s="31" t="s">
+      <c r="AB17" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AD17" s="8" t="s">
@@ -1700,7 +1936,7 @@
       <c r="R23">
         <v>6</v>
       </c>
-      <c r="S23" s="32"/>
+      <c r="S23" s="28"/>
       <c r="T23" s="24"/>
       <c r="U23" s="24"/>
       <c r="V23" s="22" t="s">
@@ -1714,26 +1950,26 @@
       <c r="AB23" s="6"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
     </row>
     <row r="31" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31">
@@ -1776,7 +2012,7 @@
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="15"/>
@@ -1794,7 +2030,7 @@
       <c r="C33" s="16"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="31"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1810,7 +2046,7 @@
       <c r="D34" s="16"/>
       <c r="E34" s="1"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="31"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="1"/>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
@@ -1828,7 +2064,7 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="31" t="s">
+      <c r="H35" s="27" t="s">
         <v>4</v>
       </c>
       <c r="I35" s="1"/>
@@ -1846,7 +2082,7 @@
       <c r="F36" s="16"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="31"/>
+      <c r="I36" s="27"/>
       <c r="J36" s="19"/>
       <c r="K36" s="21"/>
     </row>
@@ -1862,7 +2098,7 @@
       <c r="G37" s="16"/>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
-      <c r="J37" s="31"/>
+      <c r="J37" s="27"/>
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1880,23 +2116,23 @@
       </c>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
-      <c r="K38" s="31" t="s">
+      <c r="K38" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41">
@@ -1945,7 +2181,7 @@
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
-      <c r="K42" s="31" t="s">
+      <c r="K42" s="27" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1961,7 +2197,7 @@
       <c r="G43" s="16"/>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
-      <c r="J43" s="31"/>
+      <c r="J43" s="27"/>
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1975,7 +2211,7 @@
       <c r="F44" s="16"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="31"/>
+      <c r="I44" s="27"/>
       <c r="J44" s="19"/>
       <c r="K44" s="21"/>
     </row>
@@ -1991,7 +2227,7 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="31" t="s">
+      <c r="H45" s="27" t="s">
         <v>4</v>
       </c>
       <c r="I45" s="19"/>
@@ -2007,7 +2243,7 @@
       <c r="D46" s="16"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
-      <c r="G46" s="31"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
@@ -2021,7 +2257,7 @@
       <c r="C47" s="16"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="31"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2037,7 +2273,7 @@
       </c>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
-      <c r="E48" s="31" t="s">
+      <c r="E48" s="27" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="24"/>
@@ -2048,18 +2284,18 @@
       <c r="K48" s="6"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="75"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51">
@@ -2108,7 +2344,7 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="15"/>
-      <c r="K52" s="31" t="s">
+      <c r="K52" s="27" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2124,7 +2360,7 @@
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
-      <c r="J53" s="31"/>
+      <c r="J53" s="27"/>
       <c r="K53" s="21"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2136,7 +2372,7 @@
       <c r="D54" s="16"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
-      <c r="I54" s="31"/>
+      <c r="I54" s="27"/>
       <c r="J54" s="19"/>
       <c r="K54" s="21"/>
     </row>
@@ -2150,7 +2386,7 @@
       <c r="E55" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H55" s="31" t="s">
+      <c r="H55" s="27" t="s">
         <v>4</v>
       </c>
       <c r="I55" s="19"/>
@@ -2166,7 +2402,7 @@
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="31"/>
+      <c r="G56" s="27"/>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
@@ -2180,7 +2416,7 @@
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
-      <c r="F57" s="31"/>
+      <c r="F57" s="27"/>
       <c r="G57" s="16"/>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2191,10 +2427,10 @@
       <c r="A58">
         <v>6</v>
       </c>
-      <c r="B58" s="32"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
-      <c r="E58" s="31" t="s">
+      <c r="E58" s="27" t="s">
         <v>6</v>
       </c>
       <c r="F58" s="24"/>
@@ -2221,10 +2457,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7772410-F1C9-4AE2-A0F5-84E4AF1926E1}">
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,85 +2468,85 @@
     <col min="2" max="2" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C1" s="40" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C1" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="P1" s="40" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="P1" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C2" s="42" t="s">
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C2" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="41" t="s">
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="P2" s="47" t="s">
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="P2" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="48" t="s">
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C3" s="29" t="s">
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C3" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="P3" s="29" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="P3" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>0</v>
       </c>
@@ -2338,6 +2574,9 @@
       <c r="K4">
         <v>8</v>
       </c>
+      <c r="L4" s="91">
+        <v>9</v>
+      </c>
       <c r="P4">
         <v>0</v>
       </c>
@@ -2365,15 +2604,18 @@
       <c r="X4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="Y4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
         <v>31</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="32" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="15"/>
@@ -2383,29 +2625,33 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="38">
+      <c r="K5" s="90">
         <v>80</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="L5" s="84"/>
+      <c r="N5" s="76" t="s">
         <v>31</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="17"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="76"/>
       <c r="B6">
         <v>1</v>
       </c>
@@ -2416,28 +2662,30 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="34">
+      <c r="J6" s="30">
         <v>71</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="N6" s="36"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="5"/>
+      <c r="N6" s="76"/>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" s="18"/>
-      <c r="Q6" s="33" t="s">
+      <c r="Q6" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="21"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="5"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="76"/>
       <c r="B7">
         <v>2</v>
       </c>
@@ -2446,142 +2694,150 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="30" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="19"/>
-      <c r="K7" s="21"/>
-      <c r="N7" s="36"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="5"/>
+      <c r="N7" s="76"/>
       <c r="O7">
         <v>2</v>
       </c>
       <c r="P7" s="18"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="33" t="s">
+      <c r="Q7" s="38"/>
+      <c r="R7" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="33" t="s">
+      <c r="S7" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="21"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="5"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="76"/>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45" t="s">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="21"/>
-      <c r="N8" s="36"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="5"/>
+      <c r="N8" s="76"/>
       <c r="O8">
         <v>3</v>
       </c>
       <c r="P8" s="18"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="52" t="s">
+      <c r="Q8" s="38"/>
+      <c r="R8" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="54">
+      <c r="S8" s="42">
         <v>33</v>
       </c>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="21"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="5"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="76"/>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45" t="s">
+      <c r="F9" s="34"/>
+      <c r="G9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="46" t="s">
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="N9" s="36"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="5"/>
+      <c r="N9" s="76"/>
       <c r="O9">
         <v>4</v>
       </c>
       <c r="P9" s="18"/>
-      <c r="Q9" s="52" t="s">
+      <c r="Q9" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="R9" s="50"/>
-      <c r="S9" s="54">
+      <c r="R9" s="38"/>
+      <c r="S9" s="42">
         <v>34</v>
       </c>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="21"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="5"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="76"/>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="46" t="s">
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="21"/>
-      <c r="N10" s="36"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="5"/>
+      <c r="N10" s="76"/>
       <c r="O10">
         <v>5</v>
       </c>
       <c r="P10" s="18"/>
-      <c r="Q10" s="52" t="s">
+      <c r="Q10" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="R10" s="50"/>
+      <c r="R10" s="38"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="55" t="s">
+      <c r="T10" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="21"/>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="5"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="76"/>
       <c r="B11">
         <v>6</v>
       </c>
@@ -2593,218 +2849,218 @@
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="39"/>
-      <c r="N11" s="36"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="6"/>
+      <c r="N11" s="76"/>
       <c r="O11">
         <v>6</v>
       </c>
       <c r="P11" s="23"/>
-      <c r="Q11" s="53" t="s">
+      <c r="Q11" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="56" t="s">
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="25" t="s">
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="6"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C13" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="U13" s="45"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C14" s="46">
+        <v>80</v>
+      </c>
+      <c r="D14" s="46">
+        <v>52</v>
+      </c>
+      <c r="E14" s="46">
+        <v>35</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="48">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C13" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="R13" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="U13" s="57"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C14" s="58">
+      <c r="R14" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" s="45"/>
+      <c r="T14" s="47">
+        <v>86</v>
+      </c>
+      <c r="U14" s="45"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C15" s="49">
         <v>80</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D15" s="49">
         <v>52</v>
       </c>
-      <c r="E14" s="58">
-        <v>35</v>
-      </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="59" t="s">
+      <c r="E15" s="49">
+        <v>75</v>
+      </c>
+      <c r="F15" s="45"/>
+      <c r="G15" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="60">
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="50">
         <v>0</v>
       </c>
-      <c r="Q14" s="60">
+      <c r="Q15" s="50">
         <v>32</v>
       </c>
-      <c r="R14" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="S14" s="57"/>
-      <c r="T14" s="59">
+      <c r="R15" s="50">
+        <v>56</v>
+      </c>
+      <c r="S15" s="45"/>
+      <c r="T15" s="47">
         <v>86</v>
       </c>
-      <c r="U14" s="57"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C15" s="61">
-        <v>80</v>
-      </c>
-      <c r="D15" s="61">
-        <v>52</v>
-      </c>
-      <c r="E15" s="61">
-        <v>75</v>
-      </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="62">
-        <v>32</v>
-      </c>
-      <c r="R15" s="62">
-        <v>56</v>
-      </c>
-      <c r="S15" s="57"/>
-      <c r="T15" s="59">
-        <v>86</v>
-      </c>
-      <c r="U15" s="57"/>
+      <c r="U15" s="45"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
+      <c r="A24" s="51"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="P25" s="40" t="s">
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="P25" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="41" t="s">
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="P26" s="47" t="s">
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="P26" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="48" t="s">
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
+      <c r="V26" s="81"/>
+      <c r="W26" s="81"/>
+      <c r="X26" s="81"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="P27" s="29" t="s">
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="P27" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28">
@@ -2869,236 +3125,265 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="76" t="s">
         <v>31</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="69"/>
-      <c r="N29" s="36" t="s">
+      <c r="C29" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="55"/>
+      <c r="N29" s="76" t="s">
         <v>31</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
-      <c r="P29" s="76" t="s">
+      <c r="P29" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="72"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="92" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
+      <c r="A30" s="76"/>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="70"/>
-      <c r="N30" s="36"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="56"/>
+      <c r="N30" s="76"/>
       <c r="O30">
         <v>1</v>
       </c>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="55" t="s">
+      <c r="P30" s="58"/>
+      <c r="Q30" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="74"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="59"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
+      <c r="A31" s="76"/>
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="70"/>
-      <c r="N31" s="36"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="56"/>
+      <c r="N31" s="76"/>
       <c r="O31">
         <v>2</v>
       </c>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="55" t="s">
+      <c r="P31" s="58"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="S31" s="55" t="s">
+      <c r="S31" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="74"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="59"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
+      <c r="A32" s="76"/>
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="70"/>
-      <c r="N32" s="36"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="L32" s="83">
+        <v>93</v>
+      </c>
+      <c r="N32" s="76"/>
       <c r="O32">
         <v>3</v>
       </c>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="55" t="s">
+      <c r="P32" s="58"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="U32" s="55" t="s">
+      <c r="U32" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="V32" s="55" t="s">
+      <c r="V32" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="74"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="59"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
+      <c r="A33" s="76"/>
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="70"/>
-      <c r="N33" s="36"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="56"/>
+      <c r="N33" s="76"/>
       <c r="O33">
         <v>4</v>
       </c>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="74"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="59"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
+      <c r="A34" s="76"/>
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="70"/>
-      <c r="N34" s="36"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="56"/>
+      <c r="N34" s="76"/>
       <c r="O34">
         <v>5</v>
       </c>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="74"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="59"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
+      <c r="A35" s="76"/>
       <c r="B35">
         <v>6</v>
       </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="71"/>
-      <c r="N35" s="36"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="57"/>
+      <c r="N35" s="76"/>
       <c r="O35">
         <v>6</v>
       </c>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="25">
+      <c r="P35" s="60"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="6">
         <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
       <c r="P37">
         <v>0</v>
       </c>
@@ -3130,147 +3415,1528 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N38" s="36" t="s">
+    <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>9</v>
+      </c>
+      <c r="N38" s="76" t="s">
         <v>31</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
-      <c r="P38" s="77"/>
-      <c r="Q38" s="78"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="78"/>
-      <c r="U38" s="78"/>
-      <c r="V38" s="86" t="s">
+      <c r="P38" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+      <c r="T38" s="62"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="W38" s="78"/>
-      <c r="X38" s="78"/>
-      <c r="Y38" s="79"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="63"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N39" s="36"/>
+      <c r="A39" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="N39" s="76"/>
       <c r="O39">
         <v>1</v>
       </c>
-      <c r="P39" s="80"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
-      <c r="T39" s="81"/>
-      <c r="U39" s="52" t="s">
+      <c r="P39" s="64"/>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="65"/>
+      <c r="S39" s="65"/>
+      <c r="T39" s="65"/>
+      <c r="U39" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="V39" s="81"/>
-      <c r="W39" s="81"/>
-      <c r="X39" s="81"/>
-      <c r="Y39" s="82"/>
+      <c r="V39" s="65"/>
+      <c r="W39" s="65"/>
+      <c r="X39" s="65"/>
+      <c r="Y39" s="66"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N40" s="36"/>
+      <c r="A40" s="76"/>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="53"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="87"/>
+      <c r="N40" s="76"/>
       <c r="O40">
         <v>2</v>
       </c>
-      <c r="P40" s="80"/>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="81"/>
-      <c r="T40" s="52" t="s">
+      <c r="P40" s="64"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
+      <c r="S40" s="65"/>
+      <c r="T40" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="U40" s="81"/>
-      <c r="V40" s="81"/>
-      <c r="W40" s="81"/>
-      <c r="X40" s="81"/>
-      <c r="Y40" s="82"/>
+      <c r="U40" s="65"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="66"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N41" s="36"/>
+      <c r="A41" s="76"/>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" s="53"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" s="34"/>
+      <c r="L41" s="87"/>
+      <c r="N41" s="76"/>
       <c r="O41">
         <v>3</v>
       </c>
-      <c r="P41" s="87" t="s">
+      <c r="P41" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="Q41" s="52" t="s">
+      <c r="Q41" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="R41" s="52" t="s">
+      <c r="R41" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="S41" s="52" t="s">
+      <c r="S41" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="T41" s="81"/>
-      <c r="U41" s="81"/>
-      <c r="V41" s="81"/>
-      <c r="W41" s="81"/>
-      <c r="X41" s="81"/>
-      <c r="Y41" s="82"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="65"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="65"/>
+      <c r="X41" s="65"/>
+      <c r="Y41" s="66"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N42" s="36"/>
+      <c r="A42" s="76"/>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" s="53"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="87"/>
+      <c r="N42" s="76"/>
       <c r="O42">
         <v>4</v>
       </c>
-      <c r="P42" s="80"/>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="81"/>
-      <c r="S42" s="81"/>
-      <c r="T42" s="81"/>
-      <c r="U42" s="81"/>
-      <c r="V42" s="81"/>
-      <c r="W42" s="81"/>
-      <c r="X42" s="81"/>
-      <c r="Y42" s="82"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="65"/>
+      <c r="T42" s="65"/>
+      <c r="U42" s="65"/>
+      <c r="V42" s="65"/>
+      <c r="W42" s="65"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="66"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N43" s="36"/>
+      <c r="A43" s="76"/>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" s="53"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="87"/>
+      <c r="N43" s="76"/>
       <c r="O43">
         <v>5</v>
       </c>
-      <c r="P43" s="80"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="81"/>
-      <c r="S43" s="81"/>
-      <c r="T43" s="81"/>
-      <c r="U43" s="81"/>
-      <c r="V43" s="81"/>
-      <c r="W43" s="81"/>
-      <c r="X43" s="81"/>
-      <c r="Y43" s="82"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="65"/>
+      <c r="U43" s="65"/>
+      <c r="V43" s="65"/>
+      <c r="W43" s="65"/>
+      <c r="X43" s="65"/>
+      <c r="Y43" s="66"/>
     </row>
     <row r="44" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N44" s="36"/>
+      <c r="A44" s="76"/>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="87"/>
+      <c r="N44" s="76"/>
       <c r="O44">
         <v>6</v>
       </c>
-      <c r="P44" s="83"/>
-      <c r="Q44" s="84"/>
-      <c r="R44" s="84"/>
-      <c r="S44" s="84"/>
-      <c r="T44" s="84"/>
-      <c r="U44" s="84"/>
-      <c r="V44" s="84"/>
-      <c r="W44" s="84"/>
-      <c r="X44" s="84"/>
-      <c r="Y44" s="85"/>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="69"/>
+    </row>
+    <row r="45" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="76"/>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45" s="85"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="88"/>
+    </row>
+    <row r="49" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B50" s="140" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="141"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="141"/>
+      <c r="J50" s="141"/>
+      <c r="K50" s="141"/>
+      <c r="L50" s="142"/>
+      <c r="O50" s="140" t="s">
+        <v>68</v>
+      </c>
+      <c r="P50" s="141"/>
+      <c r="Q50" s="141"/>
+      <c r="R50" s="141"/>
+      <c r="S50" s="141"/>
+      <c r="T50" s="141"/>
+      <c r="U50" s="141"/>
+      <c r="V50" s="141"/>
+      <c r="W50" s="141"/>
+      <c r="X50" s="141"/>
+      <c r="Y50" s="141"/>
+      <c r="Z50" s="141"/>
+      <c r="AA50" s="141"/>
+      <c r="AB50" s="142"/>
+      <c r="AE50" s="134"/>
+      <c r="AF50" s="135"/>
+      <c r="AG50" s="135"/>
+      <c r="AH50" s="135"/>
+      <c r="AI50" s="135"/>
+      <c r="AJ50" s="135"/>
+      <c r="AK50" s="135"/>
+      <c r="AL50" s="135"/>
+      <c r="AM50" s="135"/>
+      <c r="AN50" s="136"/>
+    </row>
+    <row r="51" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="143"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="144"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="144"/>
+      <c r="K51" s="144"/>
+      <c r="L51" s="145"/>
+      <c r="O51" s="143"/>
+      <c r="P51" s="144"/>
+      <c r="Q51" s="144"/>
+      <c r="R51" s="144"/>
+      <c r="S51" s="144"/>
+      <c r="T51" s="144"/>
+      <c r="U51" s="144"/>
+      <c r="V51" s="144"/>
+      <c r="W51" s="144"/>
+      <c r="X51" s="144"/>
+      <c r="Y51" s="144"/>
+      <c r="Z51" s="144"/>
+      <c r="AA51" s="144"/>
+      <c r="AB51" s="145"/>
+      <c r="AE51" s="137"/>
+      <c r="AF51" s="138"/>
+      <c r="AG51" s="138"/>
+      <c r="AH51" s="138"/>
+      <c r="AI51" s="138"/>
+      <c r="AJ51" s="138"/>
+      <c r="AK51" s="138"/>
+      <c r="AL51" s="138"/>
+      <c r="AM51" s="138"/>
+      <c r="AN51" s="139"/>
+    </row>
+    <row r="53" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P53" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q53" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="R53" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="S53" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="V53" s="99" t="s">
+        <v>32</v>
+      </c>
+      <c r="W53" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="X53" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y53" s="100" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="2"/>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>6</v>
+      </c>
+      <c r="J54" s="3">
+        <v>7</v>
+      </c>
+      <c r="K54" s="3">
+        <v>8</v>
+      </c>
+      <c r="L54" s="84">
+        <v>9</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>1</v>
+      </c>
+      <c r="R54" s="3">
+        <v>2</v>
+      </c>
+      <c r="S54" s="3">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
+        <v>6</v>
+      </c>
+      <c r="W54" s="3">
+        <v>7</v>
+      </c>
+      <c r="X54" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>11</v>
+      </c>
+      <c r="AB54" s="84">
+        <v>12</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>1</v>
+      </c>
+      <c r="AG54">
+        <v>2</v>
+      </c>
+      <c r="AH54">
+        <v>3</v>
+      </c>
+      <c r="AI54">
+        <v>4</v>
+      </c>
+      <c r="AJ54">
+        <v>5</v>
+      </c>
+      <c r="AK54">
+        <v>6</v>
+      </c>
+      <c r="AL54">
+        <v>7</v>
+      </c>
+      <c r="AM54">
+        <v>8</v>
+      </c>
+      <c r="AN54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="92">
+        <v>0</v>
+      </c>
+      <c r="O55" s="4">
+        <v>0</v>
+      </c>
+      <c r="P55" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q55" s="101"/>
+      <c r="R55" s="101"/>
+      <c r="S55" s="101"/>
+      <c r="T55" s="101"/>
+      <c r="U55" s="101"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="112"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="132" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF55" s="15"/>
+      <c r="AG55" s="15"/>
+      <c r="AH55" s="15"/>
+      <c r="AI55" s="15"/>
+      <c r="AJ55" s="15"/>
+      <c r="AK55" s="15"/>
+      <c r="AL55" s="15"/>
+      <c r="AM55" s="15"/>
+      <c r="AN55" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="58"/>
+      <c r="D56" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="59"/>
+      <c r="O56" s="4">
+        <v>1</v>
+      </c>
+      <c r="P56" s="102"/>
+      <c r="Q56" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="R56" s="104"/>
+      <c r="S56" s="104"/>
+      <c r="T56" s="104"/>
+      <c r="U56" s="104"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="113"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB56" s="87"/>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="18"/>
+      <c r="AF56" s="16"/>
+      <c r="AG56" s="19"/>
+      <c r="AH56" s="19"/>
+      <c r="AI56" s="19"/>
+      <c r="AJ56" s="19"/>
+      <c r="AK56" s="19"/>
+      <c r="AL56" s="19"/>
+      <c r="AM56" s="27"/>
+      <c r="AN56" s="21"/>
+    </row>
+    <row r="57" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="4">
+        <v>2</v>
+      </c>
+      <c r="C57" s="58"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="59"/>
+      <c r="O57" s="4">
+        <v>2</v>
+      </c>
+      <c r="P57" s="102"/>
+      <c r="Q57" s="104"/>
+      <c r="R57" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="S57" s="127" t="s">
+        <v>71</v>
+      </c>
+      <c r="T57" s="104"/>
+      <c r="U57" s="104"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="131" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z57" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA57" s="34"/>
+      <c r="AB57" s="87"/>
+      <c r="AD57">
+        <v>2</v>
+      </c>
+      <c r="AE57" s="18"/>
+      <c r="AF57" s="19"/>
+      <c r="AG57" s="16"/>
+      <c r="AI57" s="19"/>
+      <c r="AJ57" s="19"/>
+      <c r="AL57" s="27"/>
+      <c r="AM57" s="19"/>
+      <c r="AN57" s="21"/>
+    </row>
+    <row r="58" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="4">
+        <v>3</v>
+      </c>
+      <c r="C58" s="58"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I58" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="59"/>
+      <c r="O58" s="4">
+        <v>3</v>
+      </c>
+      <c r="P58" s="102"/>
+      <c r="Q58" s="104"/>
+      <c r="R58" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="S58" s="108"/>
+      <c r="T58" s="108"/>
+      <c r="U58" s="108"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="113"/>
+      <c r="Z58" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA58" s="34"/>
+      <c r="AB58" s="87"/>
+      <c r="AD58">
+        <v>3</v>
+      </c>
+      <c r="AE58" s="18"/>
+      <c r="AF58" s="19"/>
+      <c r="AG58" s="19"/>
+      <c r="AH58" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK58" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL58" s="19"/>
+      <c r="AM58" s="19"/>
+      <c r="AN58" s="21"/>
+    </row>
+    <row r="59" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="4">
+        <v>4</v>
+      </c>
+      <c r="C59" s="64"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="59"/>
+      <c r="O59" s="4">
+        <v>4</v>
+      </c>
+      <c r="P59" s="102"/>
+      <c r="Q59" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="R59" s="104"/>
+      <c r="S59" s="108"/>
+      <c r="T59" s="108"/>
+      <c r="U59" s="108"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="113"/>
+      <c r="Z59" s="34"/>
+      <c r="AA59" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB59" s="87"/>
+      <c r="AD59">
+        <v>4</v>
+      </c>
+      <c r="AE59" s="18"/>
+      <c r="AF59" s="19"/>
+      <c r="AG59" s="19"/>
+      <c r="AH59" s="19"/>
+      <c r="AI59" s="16"/>
+      <c r="AJ59" s="27"/>
+      <c r="AK59" s="19"/>
+      <c r="AL59" s="19"/>
+      <c r="AM59" s="19"/>
+      <c r="AN59" s="21"/>
+    </row>
+    <row r="60" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="4">
+        <v>5</v>
+      </c>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" s="65"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="59"/>
+      <c r="O60" s="4">
+        <v>5</v>
+      </c>
+      <c r="P60" s="102"/>
+      <c r="Q60" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="R60" s="104"/>
+      <c r="S60" s="108"/>
+      <c r="T60" s="108"/>
+      <c r="U60" s="108"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="113"/>
+      <c r="Z60" s="34"/>
+      <c r="AA60" s="126" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB60" s="87"/>
+      <c r="AD60">
+        <v>5</v>
+      </c>
+      <c r="AE60" s="18"/>
+      <c r="AF60" s="19"/>
+      <c r="AG60" s="19"/>
+      <c r="AH60" s="19"/>
+      <c r="AI60" s="27"/>
+      <c r="AJ60" s="16"/>
+      <c r="AK60" s="19"/>
+      <c r="AL60" s="19"/>
+      <c r="AM60" s="19"/>
+      <c r="AN60" s="21"/>
+    </row>
+    <row r="61" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="4">
+        <v>6</v>
+      </c>
+      <c r="C61" s="122" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="6"/>
+      <c r="O61" s="4">
+        <v>6</v>
+      </c>
+      <c r="P61" s="102"/>
+      <c r="Q61" s="128" t="s">
+        <v>75</v>
+      </c>
+      <c r="R61" s="104"/>
+      <c r="S61" s="108"/>
+      <c r="T61" s="104"/>
+      <c r="U61" s="104"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="34"/>
+      <c r="Z61" s="34"/>
+      <c r="AA61" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB61" s="115"/>
+      <c r="AD61">
+        <v>6</v>
+      </c>
+      <c r="AE61" s="28"/>
+      <c r="AF61" s="24"/>
+      <c r="AG61" s="24"/>
+      <c r="AH61" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI61" s="24"/>
+      <c r="AJ61" s="24"/>
+      <c r="AK61" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL61" s="24"/>
+      <c r="AM61" s="24"/>
+      <c r="AN61" s="6"/>
+    </row>
+    <row r="62" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="4"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="5"/>
+      <c r="O62" s="4">
+        <v>7</v>
+      </c>
+      <c r="P62" s="109"/>
+      <c r="Q62" s="104"/>
+      <c r="R62" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="S62" s="104"/>
+      <c r="T62" s="104"/>
+      <c r="U62" s="104"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="118"/>
+      <c r="X62" s="118"/>
+      <c r="Y62" s="34"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB62" s="115"/>
+    </row>
+    <row r="63" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="4"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="5"/>
+      <c r="O63" s="4">
+        <v>8</v>
+      </c>
+      <c r="P63" s="109"/>
+      <c r="Q63" s="104"/>
+      <c r="R63" s="104"/>
+      <c r="S63" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="T63" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="U63" s="104"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="118"/>
+      <c r="X63" s="118"/>
+      <c r="Y63" s="118"/>
+      <c r="Z63" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA63" s="34"/>
+      <c r="AB63" s="115"/>
+    </row>
+    <row r="64" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="O64" s="4">
+        <v>9</v>
+      </c>
+      <c r="P64" s="109"/>
+      <c r="Q64" s="104"/>
+      <c r="R64" s="108"/>
+      <c r="S64" s="108"/>
+      <c r="T64" s="110">
+        <v>11</v>
+      </c>
+      <c r="U64" s="104"/>
+      <c r="V64" s="104"/>
+      <c r="W64" s="34"/>
+      <c r="X64" s="34"/>
+      <c r="Y64" s="133">
+        <v>24</v>
+      </c>
+      <c r="Z64" s="116"/>
+      <c r="AA64" s="116"/>
+      <c r="AB64" s="56"/>
+    </row>
+    <row r="65" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="C65" s="53"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="L65" s="87"/>
+      <c r="O65" s="4">
+        <v>10</v>
+      </c>
+      <c r="P65" s="109"/>
+      <c r="Q65" s="104"/>
+      <c r="R65" s="108"/>
+      <c r="S65" s="108"/>
+      <c r="T65" s="110">
+        <v>12</v>
+      </c>
+      <c r="U65" s="104"/>
+      <c r="V65" s="104"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="34"/>
+      <c r="Y65" s="117">
+        <v>25</v>
+      </c>
+      <c r="Z65" s="116"/>
+      <c r="AA65" s="116"/>
+      <c r="AB65" s="56"/>
+    </row>
+    <row r="66" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="4">
+        <v>2</v>
+      </c>
+      <c r="C66" s="53"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="J66" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="K66" s="34"/>
+      <c r="L66" s="87"/>
+      <c r="O66" s="4">
+        <v>11</v>
+      </c>
+      <c r="P66" s="109"/>
+      <c r="Q66" s="104"/>
+      <c r="R66" s="108"/>
+      <c r="S66" s="108"/>
+      <c r="T66" s="108"/>
+      <c r="U66" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="V66" s="104"/>
+      <c r="W66" s="34"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="117">
+        <v>26</v>
+      </c>
+      <c r="Z66" s="108"/>
+      <c r="AA66" s="111"/>
+      <c r="AB66" s="97"/>
+    </row>
+    <row r="67" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="4">
+        <v>3</v>
+      </c>
+      <c r="C67" s="53"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="123" t="s">
+        <v>82</v>
+      </c>
+      <c r="G67" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="87"/>
+      <c r="O67" s="4">
+        <v>12</v>
+      </c>
+      <c r="P67" s="109"/>
+      <c r="Q67" s="104"/>
+      <c r="R67" s="108"/>
+      <c r="S67" s="108"/>
+      <c r="T67" s="104"/>
+      <c r="U67" s="104"/>
+      <c r="V67" s="130" t="s">
+        <v>50</v>
+      </c>
+      <c r="W67" s="34"/>
+      <c r="X67" s="34"/>
+      <c r="Y67" s="117">
+        <v>27</v>
+      </c>
+      <c r="Z67" s="108"/>
+      <c r="AA67" s="111"/>
+      <c r="AB67" s="97"/>
+    </row>
+    <row r="68" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="4">
+        <v>4</v>
+      </c>
+      <c r="C68" s="53"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="56"/>
+      <c r="O68" s="4">
+        <v>13</v>
+      </c>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="96"/>
+      <c r="U68" s="96"/>
+      <c r="V68" s="96"/>
+      <c r="W68" s="34"/>
+      <c r="X68" s="34"/>
+      <c r="Y68" s="35">
+        <v>28</v>
+      </c>
+      <c r="Z68" s="96"/>
+      <c r="AA68" s="96"/>
+      <c r="AB68" s="97"/>
+    </row>
+    <row r="69" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="4">
+        <v>5</v>
+      </c>
+      <c r="C69" s="53"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="I69" s="126" t="s">
+        <v>85</v>
+      </c>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="56"/>
+      <c r="O69" s="85">
+        <v>14</v>
+      </c>
+      <c r="P69" s="85"/>
+      <c r="Q69" s="86"/>
+      <c r="R69" s="86"/>
+      <c r="S69" s="86"/>
+      <c r="T69" s="119"/>
+      <c r="U69" s="119"/>
+      <c r="V69" s="119"/>
+      <c r="W69" s="54"/>
+      <c r="X69" s="123">
+        <v>29</v>
+      </c>
+      <c r="Y69" s="54"/>
+      <c r="Z69" s="119"/>
+      <c r="AA69" s="119"/>
+      <c r="AB69" s="120"/>
+    </row>
+    <row r="70" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="85">
+        <v>6</v>
+      </c>
+      <c r="C70" s="93">
+        <v>12</v>
+      </c>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="K70" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="L70" s="124">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A78" s="31"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="31"/>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="31"/>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="31"/>
+      <c r="M80" s="31"/>
+      <c r="N80" s="31"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="31"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="31"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="31"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="31"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="31"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="31"/>
+      <c r="M83" s="31"/>
+      <c r="N83" s="31"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="31"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="31"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="31"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="31"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="31"/>
+      <c r="M85" s="31"/>
+      <c r="N85" s="31"/>
+      <c r="O85" s="31"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="31"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="31"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="31"/>
+      <c r="N86" s="31"/>
+      <c r="O86" s="31"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="31"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="31"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="31"/>
+      <c r="M87" s="31"/>
+      <c r="N87" s="31"/>
+      <c r="O87" s="31"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="31"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="31"/>
+      <c r="K88" s="31"/>
+      <c r="L88" s="31"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="31"/>
+      <c r="O88" s="31"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="31"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="31"/>
+      <c r="L89" s="31"/>
+      <c r="M89" s="31"/>
+      <c r="N89" s="31"/>
+      <c r="O89" s="31"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="31"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="31"/>
+      <c r="K90" s="31"/>
+      <c r="L90" s="31"/>
+      <c r="M90" s="31"/>
+      <c r="N90" s="31"/>
+      <c r="O90" s="31"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="31"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="31"/>
+      <c r="M91" s="31"/>
+      <c r="N91" s="31"/>
+      <c r="O91" s="31"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="31"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="31"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="31"/>
+      <c r="O92" s="31"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="31"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="31"/>
+      <c r="K93" s="31"/>
+      <c r="L93" s="31"/>
+      <c r="M93" s="31"/>
+      <c r="N93" s="31"/>
+      <c r="O93" s="31"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="31"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="31"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="31"/>
+      <c r="M94" s="31"/>
+      <c r="N94" s="31"/>
+      <c r="O94" s="31"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="31"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="31"/>
+      <c r="K95" s="31"/>
+      <c r="L95" s="31"/>
+      <c r="M95" s="31"/>
+      <c r="N95" s="31"/>
+      <c r="O95" s="31"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="31"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31"/>
+      <c r="K96" s="31"/>
+      <c r="L96" s="31"/>
+      <c r="M96" s="31"/>
+      <c r="N96" s="31"/>
+      <c r="O96" s="31"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="31"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="31"/>
+      <c r="K97" s="31"/>
+      <c r="L97" s="31"/>
+      <c r="M97" s="31"/>
+      <c r="N97" s="31"/>
+      <c r="O97" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="N38:N44"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="P25:X25"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="P27:X27"/>
-    <mergeCell ref="N29:N35"/>
+  <mergeCells count="26">
+    <mergeCell ref="O50:AB51"/>
+    <mergeCell ref="AE50:AN51"/>
+    <mergeCell ref="B50:L51"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="A39:A45"/>
     <mergeCell ref="P2:S2"/>
     <mergeCell ref="U2:X2"/>
     <mergeCell ref="P3:X3"/>
@@ -3278,9 +4944,17 @@
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="C3:K3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="P25:X25"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="P27:X27"/>
+    <mergeCell ref="N29:N35"/>
+    <mergeCell ref="N38:N44"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="C27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
